--- a/기획문서/중간발표/일정엑셀.xlsx
+++ b/기획문서/중간발표/일정엑셀.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16828"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Aww\기획문서\중간발표\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="27795" windowHeight="12330"/>
+    <workbookView xWindow="480" yWindow="96" windowWidth="27792" windowHeight="12336"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>클라이언트</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -126,14 +131,42 @@
   </si>
   <si>
     <t>보스,추가오브젝트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레임워크</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버제작</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB제작</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트연동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>보안</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,8 +198,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6" tint="0.39997558519241921"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,8 +224,20 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -272,6 +325,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -284,7 +368,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -318,11 +402,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="나쁨" xfId="2" builtinId="27"/>
+    <cellStyle name="좋음" xfId="1" builtinId="26"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,12 +438,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -377,7 +488,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -410,9 +521,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -445,6 +573,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -621,19 +766,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
@@ -661,7 +806,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -677,7 +822,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="9"/>
       <c r="B3" s="1" t="s">
         <v>10</v>
@@ -691,7 +836,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
@@ -705,7 +850,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="9"/>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -719,7 +864,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="9"/>
       <c r="B6" s="1" t="s">
         <v>13</v>
@@ -733,7 +878,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="9"/>
       <c r="B7" s="1" t="s">
         <v>12</v>
@@ -747,7 +892,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="10"/>
       <c r="B8" s="1" t="s">
         <v>26</v>
@@ -761,7 +906,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
@@ -777,7 +922,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="9"/>
       <c r="B10" s="1" t="s">
         <v>16</v>
@@ -791,7 +936,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="9"/>
       <c r="B11" s="1" t="s">
         <v>18</v>
@@ -805,7 +950,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="9"/>
       <c r="B12" s="1" t="s">
         <v>22</v>
@@ -819,7 +964,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="9"/>
       <c r="B13" s="1" t="s">
         <v>19</v>
@@ -833,7 +978,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="9"/>
       <c r="B14" s="1" t="s">
         <v>20</v>
@@ -847,7 +992,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="9"/>
       <c r="B15" s="1" t="s">
         <v>27</v>
@@ -861,7 +1006,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="9"/>
       <c r="B16" s="1" t="s">
         <v>21</v>
@@ -875,7 +1020,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="10"/>
       <c r="B17" s="1" t="s">
         <v>25</v>
@@ -889,7 +1034,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="8" t="s">
         <v>24</v>
       </c>
@@ -905,7 +1050,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="9"/>
       <c r="B19" s="1" t="s">
         <v>18</v>
@@ -919,7 +1064,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="9"/>
       <c r="B20" s="1" t="s">
         <v>19</v>
@@ -933,7 +1078,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="9"/>
       <c r="B21" s="1" t="s">
         <v>20</v>
@@ -947,7 +1092,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="10"/>
       <c r="B22" s="1" t="s">
         <v>28</v>
@@ -961,11 +1106,98 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A23" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A24" s="14"/>
+      <c r="B24" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A25" s="14"/>
+      <c r="B25" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A26" s="14"/>
+      <c r="B26" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A27" s="14"/>
+      <c r="B27" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A28" s="15"/>
+      <c r="B28" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A9:A17"/>
+    <mergeCell ref="A23:A28"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -979,7 +1211,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -992,7 +1224,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/기획문서/중간발표/일정엑셀.xlsx
+++ b/기획문서/중간발표/일정엑셀.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>클라이언트</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -126,6 +126,14 @@
   </si>
   <si>
     <t>보스,추가오브젝트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>파트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -166,7 +174,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,6 +191,24 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -284,7 +310,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -309,13 +335,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -624,7 +668,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J22"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -634,8 +678,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -663,16 +711,16 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="6"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="7"/>
       <c r="H2" s="4"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -680,11 +728,11 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="7"/>
       <c r="H3" s="4"/>
@@ -694,12 +742,12 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
       <c r="G4" s="7"/>
       <c r="H4" s="4"/>
       <c r="I4" s="1"/>
@@ -708,13 +756,13 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="6"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="7"/>
       <c r="H5" s="4"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -722,81 +770,81 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="5"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="4"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="3"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="4"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="5"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="A9" s="9"/>
       <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="7"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="1"/>
+      <c r="I9" s="3"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
+      <c r="A11" s="14" t="s">
+        <v>24</v>
+      </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -806,9 +854,9 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="2"/>
@@ -820,21 +868,20 @@
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="4"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="5"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
@@ -843,114 +890,113 @@
       <c r="E14" s="1"/>
       <c r="F14" s="2"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="1"/>
+      <c r="H14" s="5"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="6"/>
+      <c r="G15" s="7"/>
       <c r="H15" s="5"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="1"/>
+      <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
+      <c r="A16" s="11" t="s">
+        <v>0</v>
+      </c>
       <c r="B16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="6"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="3"/>
+      <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
       <c r="F17" s="1"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="A18" s="12"/>
       <c r="B18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="C18" s="1"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
       <c r="G18" s="7"/>
       <c r="H18" s="4"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="2"/>
+      <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="7"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="6"/>
       <c r="H19" s="4"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="4"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="5"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="2"/>
+      <c r="F21" s="1"/>
       <c r="G21" s="6"/>
       <c r="H21" s="5"/>
       <c r="I21" s="3"/>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -963,9 +1009,9 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A17"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A2:A10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/기획문서/중간발표/일정엑셀.xlsx
+++ b/기획문서/중간발표/일정엑셀.xlsx
@@ -335,6 +335,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -342,24 +360,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -668,7 +668,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -710,7 +710,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -726,7 +726,7 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
@@ -740,7 +740,7 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
@@ -754,7 +754,7 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="1" t="s">
         <v>22</v>
       </c>
@@ -768,7 +768,7 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
@@ -782,7 +782,7 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
@@ -796,7 +796,7 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
@@ -810,7 +810,7 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
@@ -824,7 +824,7 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
@@ -838,7 +838,7 @@
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -854,7 +854,7 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
@@ -868,7 +868,7 @@
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
@@ -881,7 +881,7 @@
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
@@ -894,7 +894,7 @@
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="1" t="s">
         <v>28</v>
       </c>

--- a/기획문서/중간발표/일정엑셀.xlsx
+++ b/기획문서/중간발표/일정엑셀.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16828"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Aww\기획문서\중간발표\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="27795" windowHeight="12330"/>
+    <workbookView xWindow="480" yWindow="96" windowWidth="27792" windowHeight="12336"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>클라이언트</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -134,13 +139,37 @@
   </si>
   <si>
     <t>분류</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버제작</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB제작</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트연동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>보안</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB추가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -174,7 +203,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,8 +238,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -298,6 +333,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -310,7 +376,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -362,11 +428,23 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="나쁨" xfId="2" builtinId="27"/>
+    <cellStyle name="좋음" xfId="1" builtinId="26"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -374,12 +452,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -421,7 +502,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -454,9 +535,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -489,6 +587,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -665,19 +780,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -709,7 +824,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="14" t="s">
         <v>15</v>
       </c>
@@ -725,7 +840,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="15"/>
       <c r="B3" s="1" t="s">
         <v>16</v>
@@ -739,7 +854,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="15"/>
       <c r="B4" s="1" t="s">
         <v>18</v>
@@ -753,7 +868,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="15"/>
       <c r="B5" s="1" t="s">
         <v>22</v>
@@ -767,7 +882,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="15"/>
       <c r="B6" s="1" t="s">
         <v>19</v>
@@ -781,7 +896,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="15"/>
       <c r="B7" s="1" t="s">
         <v>20</v>
@@ -795,7 +910,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="15"/>
       <c r="B8" s="1" t="s">
         <v>27</v>
@@ -809,7 +924,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="15"/>
       <c r="B9" s="1" t="s">
         <v>21</v>
@@ -823,7 +938,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="16"/>
       <c r="B10" s="1" t="s">
         <v>25</v>
@@ -837,7 +952,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="8" t="s">
         <v>24</v>
       </c>
@@ -853,7 +968,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="9"/>
       <c r="B12" s="1" t="s">
         <v>18</v>
@@ -867,7 +982,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="9"/>
       <c r="B13" s="1" t="s">
         <v>19</v>
@@ -880,7 +995,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="9"/>
       <c r="B14" s="1" t="s">
         <v>20</v>
@@ -893,7 +1008,7 @@
       <c r="H14" s="5"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="10"/>
       <c r="B15" s="1" t="s">
         <v>28</v>
@@ -907,7 +1022,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
         <v>0</v>
       </c>
@@ -923,7 +1038,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="12"/>
       <c r="B17" s="1" t="s">
         <v>10</v>
@@ -937,7 +1052,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="12"/>
       <c r="B18" s="1" t="s">
         <v>14</v>
@@ -951,7 +1066,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="12"/>
       <c r="B19" s="1" t="s">
         <v>11</v>
@@ -965,7 +1080,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="12"/>
       <c r="B20" s="1" t="s">
         <v>13</v>
@@ -979,7 +1094,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="12"/>
       <c r="B21" s="1" t="s">
         <v>12</v>
@@ -993,7 +1108,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="13"/>
       <c r="B22" s="1" t="s">
         <v>26</v>
@@ -1007,11 +1122,84 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A23" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A24" s="19"/>
+      <c r="B24" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A25" s="19"/>
+      <c r="B25" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A26" s="19"/>
+      <c r="B26" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A27" s="20"/>
+      <c r="B27" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A11:A15"/>
     <mergeCell ref="A16:A22"/>
     <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A23:A27"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1025,7 +1213,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1038,7 +1226,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/기획문서/중간발표/일정엑셀.xlsx
+++ b/기획문서/중간발표/일정엑셀.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16828"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Aww\기획문서\중간발표\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="96" windowWidth="27792" windowHeight="12336"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="27795" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -169,8 +164,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,8 +197,25 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,7 +252,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,75 +400,81 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="나쁨" xfId="2" builtinId="27"/>
-    <cellStyle name="좋음" xfId="1" builtinId="26"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -460,7 +490,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -502,7 +532,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -535,26 +565,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -587,23 +600,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -782,17 +778,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -824,94 +820,94 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="4"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="2"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="15"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="10"/>
       <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="4"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="2"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="15"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
       <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="2"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="4"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="15"/>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="10"/>
       <c r="B5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="4"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="2"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="15"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="10"/>
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="4"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="2"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="15"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="10"/>
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="5"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="4"/>
+      <c r="H7" s="2"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="15"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
       <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
@@ -920,12 +916,12 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="3"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="22"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="15"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
       <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
@@ -933,13 +929,13 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="22"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="16"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
       <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
@@ -947,69 +943,69 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" s="8" t="s">
+      <c r="G10" s="3"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="4"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="2"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" s="9"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="13"/>
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="4"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="2"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A13" s="9"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="13"/>
       <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="5"/>
+      <c r="H13" s="21"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A14" s="9"/>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="13"/>
       <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="2"/>
+      <c r="F14" s="5"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="5"/>
+      <c r="H14" s="21"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A15" s="10"/>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
       <c r="B15" s="1" t="s">
         <v>28</v>
       </c>
@@ -1017,71 +1013,71 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A16" s="11" t="s">
+      <c r="G15" s="3"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="4"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="2"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A17" s="12"/>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="16"/>
       <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="4"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="2"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A18" s="12"/>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="16"/>
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="4"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="2"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A19" s="12"/>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="16"/>
       <c r="B19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="4"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="2"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A20" s="12"/>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="16"/>
       <c r="B20" s="1" t="s">
         <v>13</v>
       </c>
@@ -1089,13 +1085,13 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="5"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="21"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A21" s="12"/>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="16"/>
       <c r="B21" s="1" t="s">
         <v>12</v>
       </c>
@@ -1103,13 +1099,13 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="3"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="22"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A22" s="13"/>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="17"/>
       <c r="B22" s="1" t="s">
         <v>26</v>
       </c>
@@ -1117,81 +1113,81 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="G22" s="3"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="19"/>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="4"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="2"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="19"/>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="2"/>
+      <c r="F25" s="5"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="4"/>
+      <c r="H25" s="2"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="19"/>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="G26" s="3"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="20"/>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="22"/>
       <c r="J27" s="1"/>
     </row>
   </sheetData>
@@ -1213,7 +1209,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1226,7 +1222,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
